--- a/biology/Botanique/Parc_François-Mitterrand/Parc_François-Mitterrand.xlsx
+++ b/biology/Botanique/Parc_François-Mitterrand/Parc_François-Mitterrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Fran%C3%A7ois-Mitterrand</t>
+          <t>Parc_François-Mitterrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc François-Mitterrand est un espace vert public de 2 hectares à Saint-Ouen-sur-Seine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_Fran%C3%A7ois-Mitterrand</t>
+          <t>Parc_François-Mitterrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bordé par la rue Emmy-Noether, à la limite de Clichy, de Saint-Ouen et du 17e arrondissement de Paris, c'est un parc paysager conçu pour gérer et valoriser les eaux pluviales à travers une noue végétalisée. Il est équipé d’une cascade en dénivelé se jetant dans un bassin agrémenté de plantes aquatiques, d’une aire de pique-nique, d’une aire de jeux pour les enfants et d’un canisite. 
 Il est en partie implanté au dessus de la ligne d'Ermont - Eaubonne à Champ-de-Mars, emprunté par le RER C. La sortie secondaire de la gare de Saint-Ouen débouche d'ailleurs directement dans cet espace vert. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_Fran%C3%A7ois-Mitterrand</t>
+          <t>Parc_François-Mitterrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aire de pique-nique
 Aire de jeux pour enfants
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_Fran%C3%A7ois-Mitterrand</t>
+          <t>Parc_François-Mitterrand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le cadre de la ZAC Pouchet au sud, sur la commune de Paris, il est prévu que la Place Pouchet soit connectée au parc François-Mitterrand, afin de créer une continuité dans ces espaces verts.</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_Fran%C3%A7ois-Mitterrand</t>
+          <t>Parc_François-Mitterrand</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rue Emmy-Noether</t>
         </is>
